--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_8_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_8_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.2158842834192</v>
+        <v>639.9609724003822</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.2158842834192</v>
+        <v>639.9609724003822</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77335.24737895624</v>
+        <v>5165107.115853189</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77335.24737895624</v>
+        <v>5165107.115853189</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1341541171.108336</v>
+        <v>49104905.13446274</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13942.89522270061</v>
+        <v>1118453.204922447</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27099.10399580014</v>
+        <v>2101004.355090472</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40256.65837447384</v>
+        <v>3083555.5052585</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>53700.32398767179</v>
+        <v>4064240.345648089</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67131.01934575904</v>
+        <v>5045806.70270501</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>80561.71470384627</v>
+        <v>6027373.05976193</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>93992.41006193352</v>
+        <v>7008939.416818846</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>107423.1054200208</v>
+        <v>7990505.773875761</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>120865.3882029769</v>
+        <v>8971139.417387551</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>134296.3408318069</v>
+        <v>9952756.971322259</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>147727.0361898941</v>
+        <v>10934323.32837917</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>161157.7315479814</v>
+        <v>11915889.68543609</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>174588.4269060687</v>
+        <v>12897456.04249302</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>188032.0925192666</v>
+        <v>13878140.88288262</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>201488.8576389501</v>
+        <v>14857438.21857111</v>
       </c>
     </row>
   </sheetData>
